--- a/MyMojioWebsite/src/com/mojio/xls/Dashboard_Page.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/Dashboard_Page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="695" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="695" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,13 +25,14 @@
     <sheet name="EditVehicleSave" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="EditVehicleCancel" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="EditVehicleBlankFieldName" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="EditVehicleBlankLicenseField" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="199">
   <si>
     <t>TCID</t>
   </si>
@@ -45,45 +46,48 @@
     <t>SignIn</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Navigate_Dashboard</t>
+  </si>
+  <si>
+    <t>MojioStoreShopNow</t>
+  </si>
+  <si>
+    <t>MojioStoreMyOrders</t>
+  </si>
+  <si>
+    <t>AccMgtMyProfile</t>
+  </si>
+  <si>
+    <t>AccMgtClaimMojio</t>
+  </si>
+  <si>
+    <t>MyMojioFindMyVehicle</t>
+  </si>
+  <si>
+    <t>MyMojioMyTrips</t>
+  </si>
+  <si>
+    <t>MyMojioNotifications</t>
+  </si>
+  <si>
+    <t>SupportFaq</t>
+  </si>
+  <si>
+    <t>SupportContactUs</t>
+  </si>
+  <si>
+    <t>EditVehicleDashboardVerify</t>
+  </si>
+  <si>
+    <t>EditVehicleSave</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Navigate_Dashboard</t>
-  </si>
-  <si>
-    <t>MojioStoreShopNow</t>
-  </si>
-  <si>
-    <t>MojioStoreMyOrders</t>
-  </si>
-  <si>
-    <t>AccMgtMyProfile</t>
-  </si>
-  <si>
-    <t>AccMgtClaimMojio</t>
-  </si>
-  <si>
-    <t>MyMojioFindMyVehicle</t>
-  </si>
-  <si>
-    <t>MyMojioMyTrips</t>
-  </si>
-  <si>
-    <t>MyMojioNotifications</t>
-  </si>
-  <si>
-    <t>SupportFaq</t>
-  </si>
-  <si>
-    <t>SupportContactUs</t>
-  </si>
-  <si>
-    <t>EditVehicleDashboardVerify</t>
-  </si>
-  <si>
-    <t>EditVehicleSave</t>
-  </si>
-  <si>
     <t>EditVehicleCancel</t>
   </si>
   <si>
@@ -93,9 +97,6 @@
     <t>EditVehicleBlankLicenseField</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TSID</t>
   </si>
   <si>
@@ -495,12 +496,21 @@
     <t>textNotPresent</t>
   </si>
   <si>
+    <t>Click on Save button</t>
+  </si>
+  <si>
     <t>Verify the name blank error</t>
   </si>
   <si>
     <t>col|Blank_Name_error</t>
   </si>
   <si>
+    <t>Clear the License Plate field</t>
+  </si>
+  <si>
+    <t>col|Blank_License_error</t>
+  </si>
+  <si>
     <t>Sign_In_Page</t>
   </si>
   <si>
@@ -606,7 +616,19 @@
     <t>Blank_Name_error</t>
   </si>
   <si>
-    <t>This field is required.</t>
+    <t>Please enter a vehicle name</t>
+  </si>
+  <si>
+    <t>Blank_License_error</t>
+  </si>
+  <si>
+    <t>Please enter a license plate</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -614,7 +636,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -654,7 +676,7 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +705,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF950E"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -731,7 +763,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -796,6 +828,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -876,16 +909,16 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B20" activeCellId="0" pane="topLeft" sqref="B20"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="32.1173469387755" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1013,12 +1046,12 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -1027,7 +1060,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -1036,11 +1069,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
@@ -1127,26 +1160,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="34.5408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="5" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1154,27 +1187,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1199,27 +1232,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1227,27 +1260,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1272,27 +1305,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.0102040816326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.4030612244898" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="34.0102040816326" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1300,27 +1333,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1345,27 +1378,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.0102040816326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.4030612244898" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="34.0102040816326" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.8520408163265" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1373,27 +1406,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1418,26 +1451,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="5" hidden="false" style="0" width="24.7295918367347" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="20.2959183673469" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1445,27 +1478,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1490,37 +1523,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="22.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="21.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="23.6530612244898" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="22.1734693877551" collapsed="true"/>
+    <col min="6" max="7" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="30.1020408163265" collapsed="true"/>
+    <col min="9" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
@@ -1528,36 +1561,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1582,43 +1615,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9540816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.5408163265306" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="28.8979591836735" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="18.5459183673469" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="28.8979591836735" collapsed="true"/>
+    <col min="10" max="10" hidden="false" style="0" width="23.3877551020408" collapsed="true"/>
+    <col min="11" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>2</v>
@@ -1626,39 +1659,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1678,36 +1711,36 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
+      <selection activeCell="D37" activeCellId="0" pane="topLeft" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="27.9540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="29.030612244898" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="20.8316326530612" collapsed="true"/>
+    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>2</v>
@@ -1715,30 +1748,110 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E10" activeCellId="0" pane="topLeft" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="29.030612244898" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="20.8316326530612" collapsed="true"/>
+    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1755,23 +1868,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:223"/>
+  <dimension ref="1:225"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B211" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AD16" activeCellId="0" pane="topLeft" sqref="AD16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A63" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="X38" activeCellId="0" pane="topLeft" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="7.4234693877551" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="35.0816326530612" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="29.1377551020408" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="25.1428571428571" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
+    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1795,6 +1908,9 @@
       </c>
       <c r="G1" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="H1" t="s" s="16">
+        <v>197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -2547,14 +2663,80 @@
       <c r="AB39" s="0"/>
       <c r="AC39" s="0"/>
       <c r="AD39" s="0"/>
-      <c r="AE39" s="0"/>
-      <c r="AF39" s="0"/>
-      <c r="AG39" s="0"/>
-      <c r="AH39" s="0"/>
-      <c r="AI39" s="0"/>
-      <c r="AJ39" s="0"/>
-      <c r="AK39" s="0"/>
-      <c r="AL39" s="0"/>
+      <c r="AHX39" s="0"/>
+      <c r="AHY39" s="0"/>
+      <c r="AHZ39" s="0"/>
+      <c r="AIA39" s="0"/>
+      <c r="AIB39" s="0"/>
+      <c r="AIC39" s="0"/>
+      <c r="AID39" s="0"/>
+      <c r="AIE39" s="0"/>
+      <c r="AIF39" s="0"/>
+      <c r="AIG39" s="0"/>
+      <c r="AIH39" s="0"/>
+      <c r="AII39" s="0"/>
+      <c r="AIJ39" s="0"/>
+      <c r="AIK39" s="0"/>
+      <c r="AIL39" s="0"/>
+      <c r="AIM39" s="0"/>
+      <c r="AIN39" s="0"/>
+      <c r="AIO39" s="0"/>
+      <c r="AIP39" s="0"/>
+      <c r="AIQ39" s="0"/>
+      <c r="AIR39" s="0"/>
+      <c r="AIS39" s="0"/>
+      <c r="AIT39" s="0"/>
+      <c r="AIU39" s="0"/>
+      <c r="AIV39" s="0"/>
+      <c r="AIW39" s="0"/>
+      <c r="AIX39" s="0"/>
+      <c r="AIY39" s="0"/>
+      <c r="AIZ39" s="0"/>
+      <c r="AJA39" s="0"/>
+      <c r="AJB39" s="0"/>
+      <c r="AJC39" s="0"/>
+      <c r="AJD39" s="0"/>
+      <c r="AJE39" s="0"/>
+      <c r="AJF39" s="0"/>
+      <c r="AJG39" s="0"/>
+      <c r="AJH39" s="0"/>
+      <c r="AJI39" s="0"/>
+      <c r="AJJ39" s="0"/>
+      <c r="AJK39" s="0"/>
+      <c r="AJL39" s="0"/>
+      <c r="AJM39" s="0"/>
+      <c r="AJN39" s="0"/>
+      <c r="AJO39" s="0"/>
+      <c r="AJP39" s="0"/>
+      <c r="AJQ39" s="0"/>
+      <c r="AJR39" s="0"/>
+      <c r="AJS39" s="0"/>
+      <c r="AJT39" s="0"/>
+      <c r="AJU39" s="0"/>
+      <c r="AJV39" s="0"/>
+      <c r="AJW39" s="0"/>
+      <c r="AJX39" s="0"/>
+      <c r="AJY39" s="0"/>
+      <c r="AJZ39" s="0"/>
+      <c r="AKA39" s="0"/>
+      <c r="AKB39" s="0"/>
+      <c r="AKC39" s="0"/>
+      <c r="AKD39" s="0"/>
+      <c r="AKE39" s="0"/>
+      <c r="AKF39" s="0"/>
+      <c r="AKG39" s="0"/>
+      <c r="AKH39" s="0"/>
+      <c r="AKI39" s="0"/>
+      <c r="AKJ39" s="0"/>
+      <c r="AKK39" s="0"/>
+      <c r="AKL39" s="0"/>
+      <c r="AKM39" s="0"/>
+      <c r="AKN39" s="0"/>
+      <c r="AKO39" s="0"/>
+      <c r="AKP39" s="0"/>
+      <c r="AKQ39" s="0"/>
+      <c r="AKR39" s="0"/>
+      <c r="AKS39" s="0"/>
       <c r="AKT39" s="0"/>
       <c r="AKU39" s="0"/>
       <c r="AKV39" s="0"/>
@@ -2640,14 +2822,80 @@
       <c r="AB40" s="0"/>
       <c r="AC40" s="0"/>
       <c r="AD40" s="0"/>
-      <c r="AE40" s="0"/>
-      <c r="AF40" s="0"/>
-      <c r="AG40" s="0"/>
-      <c r="AH40" s="0"/>
-      <c r="AI40" s="0"/>
-      <c r="AJ40" s="0"/>
-      <c r="AK40" s="0"/>
-      <c r="AL40" s="0"/>
+      <c r="AHX40" s="0"/>
+      <c r="AHY40" s="0"/>
+      <c r="AHZ40" s="0"/>
+      <c r="AIA40" s="0"/>
+      <c r="AIB40" s="0"/>
+      <c r="AIC40" s="0"/>
+      <c r="AID40" s="0"/>
+      <c r="AIE40" s="0"/>
+      <c r="AIF40" s="0"/>
+      <c r="AIG40" s="0"/>
+      <c r="AIH40" s="0"/>
+      <c r="AII40" s="0"/>
+      <c r="AIJ40" s="0"/>
+      <c r="AIK40" s="0"/>
+      <c r="AIL40" s="0"/>
+      <c r="AIM40" s="0"/>
+      <c r="AIN40" s="0"/>
+      <c r="AIO40" s="0"/>
+      <c r="AIP40" s="0"/>
+      <c r="AIQ40" s="0"/>
+      <c r="AIR40" s="0"/>
+      <c r="AIS40" s="0"/>
+      <c r="AIT40" s="0"/>
+      <c r="AIU40" s="0"/>
+      <c r="AIV40" s="0"/>
+      <c r="AIW40" s="0"/>
+      <c r="AIX40" s="0"/>
+      <c r="AIY40" s="0"/>
+      <c r="AIZ40" s="0"/>
+      <c r="AJA40" s="0"/>
+      <c r="AJB40" s="0"/>
+      <c r="AJC40" s="0"/>
+      <c r="AJD40" s="0"/>
+      <c r="AJE40" s="0"/>
+      <c r="AJF40" s="0"/>
+      <c r="AJG40" s="0"/>
+      <c r="AJH40" s="0"/>
+      <c r="AJI40" s="0"/>
+      <c r="AJJ40" s="0"/>
+      <c r="AJK40" s="0"/>
+      <c r="AJL40" s="0"/>
+      <c r="AJM40" s="0"/>
+      <c r="AJN40" s="0"/>
+      <c r="AJO40" s="0"/>
+      <c r="AJP40" s="0"/>
+      <c r="AJQ40" s="0"/>
+      <c r="AJR40" s="0"/>
+      <c r="AJS40" s="0"/>
+      <c r="AJT40" s="0"/>
+      <c r="AJU40" s="0"/>
+      <c r="AJV40" s="0"/>
+      <c r="AJW40" s="0"/>
+      <c r="AJX40" s="0"/>
+      <c r="AJY40" s="0"/>
+      <c r="AJZ40" s="0"/>
+      <c r="AKA40" s="0"/>
+      <c r="AKB40" s="0"/>
+      <c r="AKC40" s="0"/>
+      <c r="AKD40" s="0"/>
+      <c r="AKE40" s="0"/>
+      <c r="AKF40" s="0"/>
+      <c r="AKG40" s="0"/>
+      <c r="AKH40" s="0"/>
+      <c r="AKI40" s="0"/>
+      <c r="AKJ40" s="0"/>
+      <c r="AKK40" s="0"/>
+      <c r="AKL40" s="0"/>
+      <c r="AKM40" s="0"/>
+      <c r="AKN40" s="0"/>
+      <c r="AKO40" s="0"/>
+      <c r="AKP40" s="0"/>
+      <c r="AKQ40" s="0"/>
+      <c r="AKR40" s="0"/>
+      <c r="AKS40" s="0"/>
       <c r="AKT40" s="0"/>
       <c r="AKU40" s="0"/>
       <c r="AKV40" s="0"/>
@@ -2733,14 +2981,80 @@
       <c r="AB41" s="0"/>
       <c r="AC41" s="0"/>
       <c r="AD41" s="0"/>
-      <c r="AE41" s="0"/>
-      <c r="AF41" s="0"/>
-      <c r="AG41" s="0"/>
-      <c r="AH41" s="0"/>
-      <c r="AI41" s="0"/>
-      <c r="AJ41" s="0"/>
-      <c r="AK41" s="0"/>
-      <c r="AL41" s="0"/>
+      <c r="AHX41" s="0"/>
+      <c r="AHY41" s="0"/>
+      <c r="AHZ41" s="0"/>
+      <c r="AIA41" s="0"/>
+      <c r="AIB41" s="0"/>
+      <c r="AIC41" s="0"/>
+      <c r="AID41" s="0"/>
+      <c r="AIE41" s="0"/>
+      <c r="AIF41" s="0"/>
+      <c r="AIG41" s="0"/>
+      <c r="AIH41" s="0"/>
+      <c r="AII41" s="0"/>
+      <c r="AIJ41" s="0"/>
+      <c r="AIK41" s="0"/>
+      <c r="AIL41" s="0"/>
+      <c r="AIM41" s="0"/>
+      <c r="AIN41" s="0"/>
+      <c r="AIO41" s="0"/>
+      <c r="AIP41" s="0"/>
+      <c r="AIQ41" s="0"/>
+      <c r="AIR41" s="0"/>
+      <c r="AIS41" s="0"/>
+      <c r="AIT41" s="0"/>
+      <c r="AIU41" s="0"/>
+      <c r="AIV41" s="0"/>
+      <c r="AIW41" s="0"/>
+      <c r="AIX41" s="0"/>
+      <c r="AIY41" s="0"/>
+      <c r="AIZ41" s="0"/>
+      <c r="AJA41" s="0"/>
+      <c r="AJB41" s="0"/>
+      <c r="AJC41" s="0"/>
+      <c r="AJD41" s="0"/>
+      <c r="AJE41" s="0"/>
+      <c r="AJF41" s="0"/>
+      <c r="AJG41" s="0"/>
+      <c r="AJH41" s="0"/>
+      <c r="AJI41" s="0"/>
+      <c r="AJJ41" s="0"/>
+      <c r="AJK41" s="0"/>
+      <c r="AJL41" s="0"/>
+      <c r="AJM41" s="0"/>
+      <c r="AJN41" s="0"/>
+      <c r="AJO41" s="0"/>
+      <c r="AJP41" s="0"/>
+      <c r="AJQ41" s="0"/>
+      <c r="AJR41" s="0"/>
+      <c r="AJS41" s="0"/>
+      <c r="AJT41" s="0"/>
+      <c r="AJU41" s="0"/>
+      <c r="AJV41" s="0"/>
+      <c r="AJW41" s="0"/>
+      <c r="AJX41" s="0"/>
+      <c r="AJY41" s="0"/>
+      <c r="AJZ41" s="0"/>
+      <c r="AKA41" s="0"/>
+      <c r="AKB41" s="0"/>
+      <c r="AKC41" s="0"/>
+      <c r="AKD41" s="0"/>
+      <c r="AKE41" s="0"/>
+      <c r="AKF41" s="0"/>
+      <c r="AKG41" s="0"/>
+      <c r="AKH41" s="0"/>
+      <c r="AKI41" s="0"/>
+      <c r="AKJ41" s="0"/>
+      <c r="AKK41" s="0"/>
+      <c r="AKL41" s="0"/>
+      <c r="AKM41" s="0"/>
+      <c r="AKN41" s="0"/>
+      <c r="AKO41" s="0"/>
+      <c r="AKP41" s="0"/>
+      <c r="AKQ41" s="0"/>
+      <c r="AKR41" s="0"/>
+      <c r="AKS41" s="0"/>
       <c r="AKT41" s="0"/>
       <c r="AKU41" s="0"/>
       <c r="AKV41" s="0"/>
@@ -2826,14 +3140,80 @@
       <c r="AB42" s="0"/>
       <c r="AC42" s="0"/>
       <c r="AD42" s="0"/>
-      <c r="AE42" s="0"/>
-      <c r="AF42" s="0"/>
-      <c r="AG42" s="0"/>
-      <c r="AH42" s="0"/>
-      <c r="AI42" s="0"/>
-      <c r="AJ42" s="0"/>
-      <c r="AK42" s="0"/>
-      <c r="AL42" s="0"/>
+      <c r="AHX42" s="0"/>
+      <c r="AHY42" s="0"/>
+      <c r="AHZ42" s="0"/>
+      <c r="AIA42" s="0"/>
+      <c r="AIB42" s="0"/>
+      <c r="AIC42" s="0"/>
+      <c r="AID42" s="0"/>
+      <c r="AIE42" s="0"/>
+      <c r="AIF42" s="0"/>
+      <c r="AIG42" s="0"/>
+      <c r="AIH42" s="0"/>
+      <c r="AII42" s="0"/>
+      <c r="AIJ42" s="0"/>
+      <c r="AIK42" s="0"/>
+      <c r="AIL42" s="0"/>
+      <c r="AIM42" s="0"/>
+      <c r="AIN42" s="0"/>
+      <c r="AIO42" s="0"/>
+      <c r="AIP42" s="0"/>
+      <c r="AIQ42" s="0"/>
+      <c r="AIR42" s="0"/>
+      <c r="AIS42" s="0"/>
+      <c r="AIT42" s="0"/>
+      <c r="AIU42" s="0"/>
+      <c r="AIV42" s="0"/>
+      <c r="AIW42" s="0"/>
+      <c r="AIX42" s="0"/>
+      <c r="AIY42" s="0"/>
+      <c r="AIZ42" s="0"/>
+      <c r="AJA42" s="0"/>
+      <c r="AJB42" s="0"/>
+      <c r="AJC42" s="0"/>
+      <c r="AJD42" s="0"/>
+      <c r="AJE42" s="0"/>
+      <c r="AJF42" s="0"/>
+      <c r="AJG42" s="0"/>
+      <c r="AJH42" s="0"/>
+      <c r="AJI42" s="0"/>
+      <c r="AJJ42" s="0"/>
+      <c r="AJK42" s="0"/>
+      <c r="AJL42" s="0"/>
+      <c r="AJM42" s="0"/>
+      <c r="AJN42" s="0"/>
+      <c r="AJO42" s="0"/>
+      <c r="AJP42" s="0"/>
+      <c r="AJQ42" s="0"/>
+      <c r="AJR42" s="0"/>
+      <c r="AJS42" s="0"/>
+      <c r="AJT42" s="0"/>
+      <c r="AJU42" s="0"/>
+      <c r="AJV42" s="0"/>
+      <c r="AJW42" s="0"/>
+      <c r="AJX42" s="0"/>
+      <c r="AJY42" s="0"/>
+      <c r="AJZ42" s="0"/>
+      <c r="AKA42" s="0"/>
+      <c r="AKB42" s="0"/>
+      <c r="AKC42" s="0"/>
+      <c r="AKD42" s="0"/>
+      <c r="AKE42" s="0"/>
+      <c r="AKF42" s="0"/>
+      <c r="AKG42" s="0"/>
+      <c r="AKH42" s="0"/>
+      <c r="AKI42" s="0"/>
+      <c r="AKJ42" s="0"/>
+      <c r="AKK42" s="0"/>
+      <c r="AKL42" s="0"/>
+      <c r="AKM42" s="0"/>
+      <c r="AKN42" s="0"/>
+      <c r="AKO42" s="0"/>
+      <c r="AKP42" s="0"/>
+      <c r="AKQ42" s="0"/>
+      <c r="AKR42" s="0"/>
+      <c r="AKS42" s="0"/>
       <c r="AKT42" s="0"/>
       <c r="AKU42" s="0"/>
       <c r="AKV42" s="0"/>
@@ -2921,14 +3301,80 @@
       <c r="AB43" s="0"/>
       <c r="AC43" s="0"/>
       <c r="AD43" s="0"/>
-      <c r="AE43" s="0"/>
-      <c r="AF43" s="0"/>
-      <c r="AG43" s="0"/>
-      <c r="AH43" s="0"/>
-      <c r="AI43" s="0"/>
-      <c r="AJ43" s="0"/>
-      <c r="AK43" s="0"/>
-      <c r="AL43" s="0"/>
+      <c r="AHX43" s="0"/>
+      <c r="AHY43" s="0"/>
+      <c r="AHZ43" s="0"/>
+      <c r="AIA43" s="0"/>
+      <c r="AIB43" s="0"/>
+      <c r="AIC43" s="0"/>
+      <c r="AID43" s="0"/>
+      <c r="AIE43" s="0"/>
+      <c r="AIF43" s="0"/>
+      <c r="AIG43" s="0"/>
+      <c r="AIH43" s="0"/>
+      <c r="AII43" s="0"/>
+      <c r="AIJ43" s="0"/>
+      <c r="AIK43" s="0"/>
+      <c r="AIL43" s="0"/>
+      <c r="AIM43" s="0"/>
+      <c r="AIN43" s="0"/>
+      <c r="AIO43" s="0"/>
+      <c r="AIP43" s="0"/>
+      <c r="AIQ43" s="0"/>
+      <c r="AIR43" s="0"/>
+      <c r="AIS43" s="0"/>
+      <c r="AIT43" s="0"/>
+      <c r="AIU43" s="0"/>
+      <c r="AIV43" s="0"/>
+      <c r="AIW43" s="0"/>
+      <c r="AIX43" s="0"/>
+      <c r="AIY43" s="0"/>
+      <c r="AIZ43" s="0"/>
+      <c r="AJA43" s="0"/>
+      <c r="AJB43" s="0"/>
+      <c r="AJC43" s="0"/>
+      <c r="AJD43" s="0"/>
+      <c r="AJE43" s="0"/>
+      <c r="AJF43" s="0"/>
+      <c r="AJG43" s="0"/>
+      <c r="AJH43" s="0"/>
+      <c r="AJI43" s="0"/>
+      <c r="AJJ43" s="0"/>
+      <c r="AJK43" s="0"/>
+      <c r="AJL43" s="0"/>
+      <c r="AJM43" s="0"/>
+      <c r="AJN43" s="0"/>
+      <c r="AJO43" s="0"/>
+      <c r="AJP43" s="0"/>
+      <c r="AJQ43" s="0"/>
+      <c r="AJR43" s="0"/>
+      <c r="AJS43" s="0"/>
+      <c r="AJT43" s="0"/>
+      <c r="AJU43" s="0"/>
+      <c r="AJV43" s="0"/>
+      <c r="AJW43" s="0"/>
+      <c r="AJX43" s="0"/>
+      <c r="AJY43" s="0"/>
+      <c r="AJZ43" s="0"/>
+      <c r="AKA43" s="0"/>
+      <c r="AKB43" s="0"/>
+      <c r="AKC43" s="0"/>
+      <c r="AKD43" s="0"/>
+      <c r="AKE43" s="0"/>
+      <c r="AKF43" s="0"/>
+      <c r="AKG43" s="0"/>
+      <c r="AKH43" s="0"/>
+      <c r="AKI43" s="0"/>
+      <c r="AKJ43" s="0"/>
+      <c r="AKK43" s="0"/>
+      <c r="AKL43" s="0"/>
+      <c r="AKM43" s="0"/>
+      <c r="AKN43" s="0"/>
+      <c r="AKO43" s="0"/>
+      <c r="AKP43" s="0"/>
+      <c r="AKQ43" s="0"/>
+      <c r="AKR43" s="0"/>
+      <c r="AKS43" s="0"/>
       <c r="AKT43" s="0"/>
       <c r="AKU43" s="0"/>
       <c r="AKV43" s="0"/>
@@ -3016,14 +3462,80 @@
       <c r="AB44" s="0"/>
       <c r="AC44" s="0"/>
       <c r="AD44" s="0"/>
-      <c r="AE44" s="0"/>
-      <c r="AF44" s="0"/>
-      <c r="AG44" s="0"/>
-      <c r="AH44" s="0"/>
-      <c r="AI44" s="0"/>
-      <c r="AJ44" s="0"/>
-      <c r="AK44" s="0"/>
-      <c r="AL44" s="0"/>
+      <c r="AHX44" s="0"/>
+      <c r="AHY44" s="0"/>
+      <c r="AHZ44" s="0"/>
+      <c r="AIA44" s="0"/>
+      <c r="AIB44" s="0"/>
+      <c r="AIC44" s="0"/>
+      <c r="AID44" s="0"/>
+      <c r="AIE44" s="0"/>
+      <c r="AIF44" s="0"/>
+      <c r="AIG44" s="0"/>
+      <c r="AIH44" s="0"/>
+      <c r="AII44" s="0"/>
+      <c r="AIJ44" s="0"/>
+      <c r="AIK44" s="0"/>
+      <c r="AIL44" s="0"/>
+      <c r="AIM44" s="0"/>
+      <c r="AIN44" s="0"/>
+      <c r="AIO44" s="0"/>
+      <c r="AIP44" s="0"/>
+      <c r="AIQ44" s="0"/>
+      <c r="AIR44" s="0"/>
+      <c r="AIS44" s="0"/>
+      <c r="AIT44" s="0"/>
+      <c r="AIU44" s="0"/>
+      <c r="AIV44" s="0"/>
+      <c r="AIW44" s="0"/>
+      <c r="AIX44" s="0"/>
+      <c r="AIY44" s="0"/>
+      <c r="AIZ44" s="0"/>
+      <c r="AJA44" s="0"/>
+      <c r="AJB44" s="0"/>
+      <c r="AJC44" s="0"/>
+      <c r="AJD44" s="0"/>
+      <c r="AJE44" s="0"/>
+      <c r="AJF44" s="0"/>
+      <c r="AJG44" s="0"/>
+      <c r="AJH44" s="0"/>
+      <c r="AJI44" s="0"/>
+      <c r="AJJ44" s="0"/>
+      <c r="AJK44" s="0"/>
+      <c r="AJL44" s="0"/>
+      <c r="AJM44" s="0"/>
+      <c r="AJN44" s="0"/>
+      <c r="AJO44" s="0"/>
+      <c r="AJP44" s="0"/>
+      <c r="AJQ44" s="0"/>
+      <c r="AJR44" s="0"/>
+      <c r="AJS44" s="0"/>
+      <c r="AJT44" s="0"/>
+      <c r="AJU44" s="0"/>
+      <c r="AJV44" s="0"/>
+      <c r="AJW44" s="0"/>
+      <c r="AJX44" s="0"/>
+      <c r="AJY44" s="0"/>
+      <c r="AJZ44" s="0"/>
+      <c r="AKA44" s="0"/>
+      <c r="AKB44" s="0"/>
+      <c r="AKC44" s="0"/>
+      <c r="AKD44" s="0"/>
+      <c r="AKE44" s="0"/>
+      <c r="AKF44" s="0"/>
+      <c r="AKG44" s="0"/>
+      <c r="AKH44" s="0"/>
+      <c r="AKI44" s="0"/>
+      <c r="AKJ44" s="0"/>
+      <c r="AKK44" s="0"/>
+      <c r="AKL44" s="0"/>
+      <c r="AKM44" s="0"/>
+      <c r="AKN44" s="0"/>
+      <c r="AKO44" s="0"/>
+      <c r="AKP44" s="0"/>
+      <c r="AKQ44" s="0"/>
+      <c r="AKR44" s="0"/>
+      <c r="AKS44" s="0"/>
       <c r="AKT44" s="0"/>
       <c r="AKU44" s="0"/>
       <c r="AKV44" s="0"/>
@@ -3109,14 +3621,80 @@
       <c r="AB45" s="0"/>
       <c r="AC45" s="0"/>
       <c r="AD45" s="0"/>
-      <c r="AE45" s="0"/>
-      <c r="AF45" s="0"/>
-      <c r="AG45" s="0"/>
-      <c r="AH45" s="0"/>
-      <c r="AI45" s="0"/>
-      <c r="AJ45" s="0"/>
-      <c r="AK45" s="0"/>
-      <c r="AL45" s="0"/>
+      <c r="AHX45" s="0"/>
+      <c r="AHY45" s="0"/>
+      <c r="AHZ45" s="0"/>
+      <c r="AIA45" s="0"/>
+      <c r="AIB45" s="0"/>
+      <c r="AIC45" s="0"/>
+      <c r="AID45" s="0"/>
+      <c r="AIE45" s="0"/>
+      <c r="AIF45" s="0"/>
+      <c r="AIG45" s="0"/>
+      <c r="AIH45" s="0"/>
+      <c r="AII45" s="0"/>
+      <c r="AIJ45" s="0"/>
+      <c r="AIK45" s="0"/>
+      <c r="AIL45" s="0"/>
+      <c r="AIM45" s="0"/>
+      <c r="AIN45" s="0"/>
+      <c r="AIO45" s="0"/>
+      <c r="AIP45" s="0"/>
+      <c r="AIQ45" s="0"/>
+      <c r="AIR45" s="0"/>
+      <c r="AIS45" s="0"/>
+      <c r="AIT45" s="0"/>
+      <c r="AIU45" s="0"/>
+      <c r="AIV45" s="0"/>
+      <c r="AIW45" s="0"/>
+      <c r="AIX45" s="0"/>
+      <c r="AIY45" s="0"/>
+      <c r="AIZ45" s="0"/>
+      <c r="AJA45" s="0"/>
+      <c r="AJB45" s="0"/>
+      <c r="AJC45" s="0"/>
+      <c r="AJD45" s="0"/>
+      <c r="AJE45" s="0"/>
+      <c r="AJF45" s="0"/>
+      <c r="AJG45" s="0"/>
+      <c r="AJH45" s="0"/>
+      <c r="AJI45" s="0"/>
+      <c r="AJJ45" s="0"/>
+      <c r="AJK45" s="0"/>
+      <c r="AJL45" s="0"/>
+      <c r="AJM45" s="0"/>
+      <c r="AJN45" s="0"/>
+      <c r="AJO45" s="0"/>
+      <c r="AJP45" s="0"/>
+      <c r="AJQ45" s="0"/>
+      <c r="AJR45" s="0"/>
+      <c r="AJS45" s="0"/>
+      <c r="AJT45" s="0"/>
+      <c r="AJU45" s="0"/>
+      <c r="AJV45" s="0"/>
+      <c r="AJW45" s="0"/>
+      <c r="AJX45" s="0"/>
+      <c r="AJY45" s="0"/>
+      <c r="AJZ45" s="0"/>
+      <c r="AKA45" s="0"/>
+      <c r="AKB45" s="0"/>
+      <c r="AKC45" s="0"/>
+      <c r="AKD45" s="0"/>
+      <c r="AKE45" s="0"/>
+      <c r="AKF45" s="0"/>
+      <c r="AKG45" s="0"/>
+      <c r="AKH45" s="0"/>
+      <c r="AKI45" s="0"/>
+      <c r="AKJ45" s="0"/>
+      <c r="AKK45" s="0"/>
+      <c r="AKL45" s="0"/>
+      <c r="AKM45" s="0"/>
+      <c r="AKN45" s="0"/>
+      <c r="AKO45" s="0"/>
+      <c r="AKP45" s="0"/>
+      <c r="AKQ45" s="0"/>
+      <c r="AKR45" s="0"/>
+      <c r="AKS45" s="0"/>
       <c r="AKT45" s="0"/>
       <c r="AKU45" s="0"/>
       <c r="AKV45" s="0"/>
@@ -3202,14 +3780,80 @@
       <c r="AB46" s="0"/>
       <c r="AC46" s="0"/>
       <c r="AD46" s="0"/>
-      <c r="AE46" s="0"/>
-      <c r="AF46" s="0"/>
-      <c r="AG46" s="0"/>
-      <c r="AH46" s="0"/>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0"/>
-      <c r="AK46" s="0"/>
-      <c r="AL46" s="0"/>
+      <c r="AHX46" s="0"/>
+      <c r="AHY46" s="0"/>
+      <c r="AHZ46" s="0"/>
+      <c r="AIA46" s="0"/>
+      <c r="AIB46" s="0"/>
+      <c r="AIC46" s="0"/>
+      <c r="AID46" s="0"/>
+      <c r="AIE46" s="0"/>
+      <c r="AIF46" s="0"/>
+      <c r="AIG46" s="0"/>
+      <c r="AIH46" s="0"/>
+      <c r="AII46" s="0"/>
+      <c r="AIJ46" s="0"/>
+      <c r="AIK46" s="0"/>
+      <c r="AIL46" s="0"/>
+      <c r="AIM46" s="0"/>
+      <c r="AIN46" s="0"/>
+      <c r="AIO46" s="0"/>
+      <c r="AIP46" s="0"/>
+      <c r="AIQ46" s="0"/>
+      <c r="AIR46" s="0"/>
+      <c r="AIS46" s="0"/>
+      <c r="AIT46" s="0"/>
+      <c r="AIU46" s="0"/>
+      <c r="AIV46" s="0"/>
+      <c r="AIW46" s="0"/>
+      <c r="AIX46" s="0"/>
+      <c r="AIY46" s="0"/>
+      <c r="AIZ46" s="0"/>
+      <c r="AJA46" s="0"/>
+      <c r="AJB46" s="0"/>
+      <c r="AJC46" s="0"/>
+      <c r="AJD46" s="0"/>
+      <c r="AJE46" s="0"/>
+      <c r="AJF46" s="0"/>
+      <c r="AJG46" s="0"/>
+      <c r="AJH46" s="0"/>
+      <c r="AJI46" s="0"/>
+      <c r="AJJ46" s="0"/>
+      <c r="AJK46" s="0"/>
+      <c r="AJL46" s="0"/>
+      <c r="AJM46" s="0"/>
+      <c r="AJN46" s="0"/>
+      <c r="AJO46" s="0"/>
+      <c r="AJP46" s="0"/>
+      <c r="AJQ46" s="0"/>
+      <c r="AJR46" s="0"/>
+      <c r="AJS46" s="0"/>
+      <c r="AJT46" s="0"/>
+      <c r="AJU46" s="0"/>
+      <c r="AJV46" s="0"/>
+      <c r="AJW46" s="0"/>
+      <c r="AJX46" s="0"/>
+      <c r="AJY46" s="0"/>
+      <c r="AJZ46" s="0"/>
+      <c r="AKA46" s="0"/>
+      <c r="AKB46" s="0"/>
+      <c r="AKC46" s="0"/>
+      <c r="AKD46" s="0"/>
+      <c r="AKE46" s="0"/>
+      <c r="AKF46" s="0"/>
+      <c r="AKG46" s="0"/>
+      <c r="AKH46" s="0"/>
+      <c r="AKI46" s="0"/>
+      <c r="AKJ46" s="0"/>
+      <c r="AKK46" s="0"/>
+      <c r="AKL46" s="0"/>
+      <c r="AKM46" s="0"/>
+      <c r="AKN46" s="0"/>
+      <c r="AKO46" s="0"/>
+      <c r="AKP46" s="0"/>
+      <c r="AKQ46" s="0"/>
+      <c r="AKR46" s="0"/>
+      <c r="AKS46" s="0"/>
       <c r="AKT46" s="0"/>
       <c r="AKU46" s="0"/>
       <c r="AKV46" s="0"/>
@@ -3295,14 +3939,80 @@
       <c r="AB47" s="0"/>
       <c r="AC47" s="0"/>
       <c r="AD47" s="0"/>
-      <c r="AE47" s="0"/>
-      <c r="AF47" s="0"/>
-      <c r="AG47" s="0"/>
-      <c r="AH47" s="0"/>
-      <c r="AI47" s="0"/>
-      <c r="AJ47" s="0"/>
-      <c r="AK47" s="0"/>
-      <c r="AL47" s="0"/>
+      <c r="AHX47" s="0"/>
+      <c r="AHY47" s="0"/>
+      <c r="AHZ47" s="0"/>
+      <c r="AIA47" s="0"/>
+      <c r="AIB47" s="0"/>
+      <c r="AIC47" s="0"/>
+      <c r="AID47" s="0"/>
+      <c r="AIE47" s="0"/>
+      <c r="AIF47" s="0"/>
+      <c r="AIG47" s="0"/>
+      <c r="AIH47" s="0"/>
+      <c r="AII47" s="0"/>
+      <c r="AIJ47" s="0"/>
+      <c r="AIK47" s="0"/>
+      <c r="AIL47" s="0"/>
+      <c r="AIM47" s="0"/>
+      <c r="AIN47" s="0"/>
+      <c r="AIO47" s="0"/>
+      <c r="AIP47" s="0"/>
+      <c r="AIQ47" s="0"/>
+      <c r="AIR47" s="0"/>
+      <c r="AIS47" s="0"/>
+      <c r="AIT47" s="0"/>
+      <c r="AIU47" s="0"/>
+      <c r="AIV47" s="0"/>
+      <c r="AIW47" s="0"/>
+      <c r="AIX47" s="0"/>
+      <c r="AIY47" s="0"/>
+      <c r="AIZ47" s="0"/>
+      <c r="AJA47" s="0"/>
+      <c r="AJB47" s="0"/>
+      <c r="AJC47" s="0"/>
+      <c r="AJD47" s="0"/>
+      <c r="AJE47" s="0"/>
+      <c r="AJF47" s="0"/>
+      <c r="AJG47" s="0"/>
+      <c r="AJH47" s="0"/>
+      <c r="AJI47" s="0"/>
+      <c r="AJJ47" s="0"/>
+      <c r="AJK47" s="0"/>
+      <c r="AJL47" s="0"/>
+      <c r="AJM47" s="0"/>
+      <c r="AJN47" s="0"/>
+      <c r="AJO47" s="0"/>
+      <c r="AJP47" s="0"/>
+      <c r="AJQ47" s="0"/>
+      <c r="AJR47" s="0"/>
+      <c r="AJS47" s="0"/>
+      <c r="AJT47" s="0"/>
+      <c r="AJU47" s="0"/>
+      <c r="AJV47" s="0"/>
+      <c r="AJW47" s="0"/>
+      <c r="AJX47" s="0"/>
+      <c r="AJY47" s="0"/>
+      <c r="AJZ47" s="0"/>
+      <c r="AKA47" s="0"/>
+      <c r="AKB47" s="0"/>
+      <c r="AKC47" s="0"/>
+      <c r="AKD47" s="0"/>
+      <c r="AKE47" s="0"/>
+      <c r="AKF47" s="0"/>
+      <c r="AKG47" s="0"/>
+      <c r="AKH47" s="0"/>
+      <c r="AKI47" s="0"/>
+      <c r="AKJ47" s="0"/>
+      <c r="AKK47" s="0"/>
+      <c r="AKL47" s="0"/>
+      <c r="AKM47" s="0"/>
+      <c r="AKN47" s="0"/>
+      <c r="AKO47" s="0"/>
+      <c r="AKP47" s="0"/>
+      <c r="AKQ47" s="0"/>
+      <c r="AKR47" s="0"/>
+      <c r="AKS47" s="0"/>
       <c r="AKT47" s="0"/>
       <c r="AKU47" s="0"/>
       <c r="AKV47" s="0"/>
@@ -3388,14 +4098,80 @@
       <c r="AB48" s="0"/>
       <c r="AC48" s="0"/>
       <c r="AD48" s="0"/>
-      <c r="AE48" s="0"/>
-      <c r="AF48" s="0"/>
-      <c r="AG48" s="0"/>
-      <c r="AH48" s="0"/>
-      <c r="AI48" s="0"/>
-      <c r="AJ48" s="0"/>
-      <c r="AK48" s="0"/>
-      <c r="AL48" s="0"/>
+      <c r="AHX48" s="0"/>
+      <c r="AHY48" s="0"/>
+      <c r="AHZ48" s="0"/>
+      <c r="AIA48" s="0"/>
+      <c r="AIB48" s="0"/>
+      <c r="AIC48" s="0"/>
+      <c r="AID48" s="0"/>
+      <c r="AIE48" s="0"/>
+      <c r="AIF48" s="0"/>
+      <c r="AIG48" s="0"/>
+      <c r="AIH48" s="0"/>
+      <c r="AII48" s="0"/>
+      <c r="AIJ48" s="0"/>
+      <c r="AIK48" s="0"/>
+      <c r="AIL48" s="0"/>
+      <c r="AIM48" s="0"/>
+      <c r="AIN48" s="0"/>
+      <c r="AIO48" s="0"/>
+      <c r="AIP48" s="0"/>
+      <c r="AIQ48" s="0"/>
+      <c r="AIR48" s="0"/>
+      <c r="AIS48" s="0"/>
+      <c r="AIT48" s="0"/>
+      <c r="AIU48" s="0"/>
+      <c r="AIV48" s="0"/>
+      <c r="AIW48" s="0"/>
+      <c r="AIX48" s="0"/>
+      <c r="AIY48" s="0"/>
+      <c r="AIZ48" s="0"/>
+      <c r="AJA48" s="0"/>
+      <c r="AJB48" s="0"/>
+      <c r="AJC48" s="0"/>
+      <c r="AJD48" s="0"/>
+      <c r="AJE48" s="0"/>
+      <c r="AJF48" s="0"/>
+      <c r="AJG48" s="0"/>
+      <c r="AJH48" s="0"/>
+      <c r="AJI48" s="0"/>
+      <c r="AJJ48" s="0"/>
+      <c r="AJK48" s="0"/>
+      <c r="AJL48" s="0"/>
+      <c r="AJM48" s="0"/>
+      <c r="AJN48" s="0"/>
+      <c r="AJO48" s="0"/>
+      <c r="AJP48" s="0"/>
+      <c r="AJQ48" s="0"/>
+      <c r="AJR48" s="0"/>
+      <c r="AJS48" s="0"/>
+      <c r="AJT48" s="0"/>
+      <c r="AJU48" s="0"/>
+      <c r="AJV48" s="0"/>
+      <c r="AJW48" s="0"/>
+      <c r="AJX48" s="0"/>
+      <c r="AJY48" s="0"/>
+      <c r="AJZ48" s="0"/>
+      <c r="AKA48" s="0"/>
+      <c r="AKB48" s="0"/>
+      <c r="AKC48" s="0"/>
+      <c r="AKD48" s="0"/>
+      <c r="AKE48" s="0"/>
+      <c r="AKF48" s="0"/>
+      <c r="AKG48" s="0"/>
+      <c r="AKH48" s="0"/>
+      <c r="AKI48" s="0"/>
+      <c r="AKJ48" s="0"/>
+      <c r="AKK48" s="0"/>
+      <c r="AKL48" s="0"/>
+      <c r="AKM48" s="0"/>
+      <c r="AKN48" s="0"/>
+      <c r="AKO48" s="0"/>
+      <c r="AKP48" s="0"/>
+      <c r="AKQ48" s="0"/>
+      <c r="AKR48" s="0"/>
+      <c r="AKS48" s="0"/>
       <c r="AKT48" s="0"/>
       <c r="AKU48" s="0"/>
       <c r="AKV48" s="0"/>
@@ -5408,6 +6184,9 @@
         <v>29</v>
       </c>
       <c r="G151" s="5"/>
+      <c r="H151" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="152">
       <c r="A152" s="5" t="s">
@@ -5427,6 +6206,9 @@
         <v>33</v>
       </c>
       <c r="G152" s="5"/>
+      <c r="H152" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="153">
       <c r="A153" s="5" t="s">
@@ -5446,6 +6228,9 @@
         <v>37</v>
       </c>
       <c r="G153" s="5"/>
+      <c r="H153" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="154">
       <c r="A154" s="5" t="s">
@@ -5467,6 +6252,9 @@
         <v>42</v>
       </c>
       <c r="G154" s="5"/>
+      <c r="H154" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="155">
       <c r="A155" s="5" t="s">
@@ -5488,6 +6276,9 @@
         <v>46</v>
       </c>
       <c r="G155" s="5"/>
+      <c r="H155" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="156">
       <c r="A156" s="5" t="s">
@@ -5507,6 +6298,9 @@
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
+      <c r="H156" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="157">
       <c r="A157" s="5" t="s">
@@ -5526,6 +6320,9 @@
         <v>53</v>
       </c>
       <c r="G157" s="5"/>
+      <c r="H157" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="158">
       <c r="A158" s="5" t="s">
@@ -5545,6 +6342,9 @@
         <v>33</v>
       </c>
       <c r="G158" s="5"/>
+      <c r="H158" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="159">
       <c r="A159" s="5" t="s">
@@ -5564,6 +6364,9 @@
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="5"/>
+      <c r="H159" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="160">
       <c r="A160" s="5" t="s">
@@ -5583,6 +6386,9 @@
         <v>53</v>
       </c>
       <c r="G160" s="5"/>
+      <c r="H160" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="161">
       <c r="A161" s="5" t="s">
@@ -5602,6 +6408,9 @@
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
+      <c r="H161" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="162">
       <c r="A162" s="5" t="s">
@@ -5621,6 +6430,9 @@
         <v>122</v>
       </c>
       <c r="G162" s="5"/>
+      <c r="H162" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="163">
       <c r="A163" s="5" t="s">
@@ -5640,6 +6452,9 @@
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
+      <c r="H163" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
       <c r="A164" s="5" t="s">
@@ -5659,6 +6474,9 @@
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
+      <c r="H164" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="165">
       <c r="A165" s="5" t="s">
@@ -5678,6 +6496,9 @@
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
+      <c r="H165" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
@@ -5699,6 +6520,9 @@
         <v>133</v>
       </c>
       <c r="G166" s="5"/>
+      <c r="H166" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="167">
       <c r="A167" s="5" t="s">
@@ -5720,6 +6544,9 @@
         <v>138</v>
       </c>
       <c r="G167" s="5"/>
+      <c r="H167" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="168">
       <c r="A168" s="5" t="s">
@@ -5739,6 +6566,9 @@
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
+      <c r="H168" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="169">
       <c r="A169" s="5" t="s">
@@ -5758,6 +6588,9 @@
         <v>143</v>
       </c>
       <c r="G169" s="5"/>
+      <c r="H169" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="170">
       <c r="A170" s="5" t="s">
@@ -5775,6 +6608,9 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
+      <c r="H170" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="171">
       <c r="A171" s="5" t="s">
@@ -5792,10 +6628,13 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
+      <c r="H171" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="172">
       <c r="A172" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>26</v>
@@ -5814,7 +6653,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="173">
       <c r="A173" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>30</v>
@@ -5833,7 +6672,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="174">
       <c r="A174" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>34</v>
@@ -5852,7 +6691,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="175">
       <c r="A175" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>38</v>
@@ -5873,7 +6712,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="176">
       <c r="A176" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>43</v>
@@ -5894,7 +6733,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="177">
       <c r="A177" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>47</v>
@@ -5913,7 +6752,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="178">
       <c r="A178" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>51</v>
@@ -5932,7 +6771,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="179">
       <c r="A179" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>58</v>
@@ -5951,7 +6790,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="180">
       <c r="A180" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>59</v>
@@ -5970,7 +6809,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="181">
       <c r="A181" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>60</v>
@@ -5989,7 +6828,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="182">
       <c r="A182" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>61</v>
@@ -6008,7 +6847,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="183">
       <c r="A183" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>65</v>
@@ -6027,7 +6866,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="184">
       <c r="A184" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>69</v>
@@ -6046,7 +6885,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="185">
       <c r="A185" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>72</v>
@@ -6065,7 +6904,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="186">
       <c r="A186" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>128</v>
@@ -6086,7 +6925,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="187">
       <c r="A187" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>131</v>
@@ -6107,7 +6946,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="188">
       <c r="A188" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>134</v>
@@ -6128,7 +6967,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="189">
       <c r="A189" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>139</v>
@@ -6147,7 +6986,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="190">
       <c r="A190" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>141</v>
@@ -6166,7 +7005,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="191">
       <c r="A191" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>144</v>
@@ -6183,7 +7022,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="192">
       <c r="A192" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>26</v>
@@ -6202,7 +7041,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="193">
       <c r="A193" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>30</v>
@@ -6221,7 +7060,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="194">
       <c r="A194" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>34</v>
@@ -6240,7 +7079,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="195">
       <c r="A195" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>38</v>
@@ -6261,7 +7100,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="196">
       <c r="A196" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>43</v>
@@ -6282,7 +7121,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="197">
       <c r="A197" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>47</v>
@@ -6301,7 +7140,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="198">
       <c r="A198" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>51</v>
@@ -6320,7 +7159,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="199">
       <c r="A199" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>58</v>
@@ -6339,7 +7178,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="200">
       <c r="A200" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>59</v>
@@ -6358,7 +7197,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="201">
       <c r="A201" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>60</v>
@@ -6377,7 +7216,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="202">
       <c r="A202" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>61</v>
@@ -6396,7 +7235,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="203">
       <c r="A203" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>65</v>
@@ -6415,7 +7254,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="204">
       <c r="A204" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>69</v>
@@ -6434,13 +7273,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="205">
       <c r="A205" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>63</v>
@@ -6453,345 +7292,379 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="206">
       <c r="A206" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="E206" s="4"/>
-      <c r="F206" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="F206" s="4"/>
       <c r="G206" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="207">
       <c r="A207" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C207" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G207" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="208">
+      <c r="A208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D208" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G208" s="5"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="209">
       <c r="A209" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G209" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="210">
       <c r="A210" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G210" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="211">
       <c r="A211" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E211" s="5"/>
       <c r="F211" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G211" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="212">
       <c r="A212" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G212" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="213">
       <c r="A213" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G213" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="214">
       <c r="A214" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="215">
       <c r="A215" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G215" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="216">
       <c r="A216" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F216" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G216" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="217">
       <c r="A217" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F217" s="11"/>
       <c r="G217" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="218">
       <c r="A218" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F218" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="G218" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="219">
       <c r="A219" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E219" s="11"/>
-      <c r="F219" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="220">
       <c r="A220" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F220" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="G220" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="221">
       <c r="A221" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="222">
       <c r="A222" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="223">
       <c r="A223" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="224">
+      <c r="A224" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G224" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="225">
+      <c r="A225" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6817,26 +7690,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="33.0663265306122" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="26.2040816326531" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="25.9387755102041" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="23.1173469387755" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="14.1122448979592" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -6844,24 +7717,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6886,22 +7759,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="23.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="5" hidden="false" style="0" width="23.1173469387755" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -6909,24 +7782,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6951,23 +7824,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="34.4030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="5" hidden="false" style="0" width="34.4030612244898" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="24.3265306122449" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -6978,27 +7851,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7023,27 +7896,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.5408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.8520408163265" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -7051,27 +7924,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7096,27 +7969,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -7124,27 +7997,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7169,27 +8042,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
+    <col min="2" max="5" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.4438775510204" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -7197,27 +8070,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7242,26 +8115,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="34.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="5" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="22.7142857142857" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -7269,27 +8142,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MyMojioWebsite/src/com/mojio/xls/Dashboard_Page.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/Dashboard_Page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="695" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="695" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,13 +26,15 @@
     <sheet name="EditVehicleCancel" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="EditVehicleBlankFieldName" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="EditVehicleBlankLicenseField" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="ClaimMojioButtonNewAccount" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="ClaimMojioLinkNewAccount" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="226">
   <si>
     <t>TCID</t>
   </si>
@@ -85,16 +87,22 @@
     <t>EditVehicleSave</t>
   </si>
   <si>
+    <t>EditVehicleCancel</t>
+  </si>
+  <si>
+    <t>EditVehicleBlankFieldName</t>
+  </si>
+  <si>
+    <t>EditVehicleBlankLicenseField</t>
+  </si>
+  <si>
+    <t>ClaimMojioButtonNewAccount</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>EditVehicleCancel</t>
-  </si>
-  <si>
-    <t>EditVehicleBlankFieldName</t>
-  </si>
-  <si>
-    <t>EditVehicleBlankLicenseField</t>
+    <t>ClaimMojioLinkNewAccount</t>
   </si>
   <si>
     <t>TSID</t>
@@ -511,6 +519,75 @@
     <t>col|Blank_License_error</t>
   </si>
   <si>
+    <t>Open the Browser</t>
+  </si>
+  <si>
+    <t>Navigate to Home Page</t>
+  </si>
+  <si>
+    <t>Click on Create New Account button</t>
+  </si>
+  <si>
+    <t>createNewAccountxpath</t>
+  </si>
+  <si>
+    <t>Write user name using current date</t>
+  </si>
+  <si>
+    <t>writeRandomUsernameById</t>
+  </si>
+  <si>
+    <t>createUsernameId</t>
+  </si>
+  <si>
+    <t>Write email using current date</t>
+  </si>
+  <si>
+    <t>writeRandomEmailById</t>
+  </si>
+  <si>
+    <t>createEmailId</t>
+  </si>
+  <si>
+    <t>Write password</t>
+  </si>
+  <si>
+    <t>createPasswordId</t>
+  </si>
+  <si>
+    <t>col|Password</t>
+  </si>
+  <si>
+    <t>Write Confirm password</t>
+  </si>
+  <si>
+    <t>createConfirmPasswordId</t>
+  </si>
+  <si>
+    <t>Click on create account button</t>
+  </si>
+  <si>
+    <t>createAccountButtonXpath</t>
+  </si>
+  <si>
+    <t>Verify the user account is created</t>
+  </si>
+  <si>
+    <t>Click on Claim a Mojio button</t>
+  </si>
+  <si>
+    <t>newAccountClaimMojiobuttonId</t>
+  </si>
+  <si>
+    <t>Verify the text on the page</t>
+  </si>
+  <si>
+    <t>Click on  claim your Mojio here link</t>
+  </si>
+  <si>
+    <t>newAccountClaimMojiolinkXpath</t>
+  </si>
+  <si>
     <t>Sign_In_Page</t>
   </si>
   <si>
@@ -625,10 +702,16 @@
     <t>Please enter a license plate</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Create_Account_Page</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sign up for a new Mojio account</t>
+  </si>
+  <si>
+    <t>Welcome to the Mojio Dashboard.</t>
   </si>
 </sst>
 </file>
@@ -636,9 +719,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -671,12 +754,19 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,18 +797,8 @@
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -728,6 +808,20 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -758,12 +852,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -824,11 +918,42 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -909,16 +1034,16 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C22" activeCellId="0" pane="topLeft" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="32.1173469387755" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1046,12 +1171,12 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -1060,7 +1185,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -1069,7 +1194,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1077,14 +1202,22 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="1"/>
@@ -1160,26 +1293,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="34.5408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1187,27 +1320,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1232,27 +1365,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1260,27 +1393,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1305,27 +1438,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="34.4030612244898" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="34.0102040816326" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.0102040816326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1333,27 +1466,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1378,27 +1511,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="34.4030612244898" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="34.0102040816326" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.8520408163265" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.0102040816326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1406,27 +1539,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1451,26 +1584,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" hidden="false" style="0" width="24.7295918367347" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="20.2959183673469" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -1478,27 +1611,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1523,37 +1656,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.6530612244898" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="22.1734693877551" collapsed="true"/>
-    <col min="6" max="7" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="30.1020408163265" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="22.1734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="21.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
@@ -1561,36 +1694,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1615,43 +1748,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.5408163265306" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="28.8979591836735" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="18.5459183673469" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="28.8979591836735" collapsed="true"/>
-    <col min="10" max="10" hidden="false" style="0" width="23.3877551020408" collapsed="true"/>
-    <col min="11" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="28.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9540816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>2</v>
@@ -1659,39 +1792,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1716,31 +1849,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="29.030612244898" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="20.8316326530612" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="27.9540816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>2</v>
@@ -1748,30 +1881,30 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1796,31 +1929,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="29.030612244898" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="20.8316326530612" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="27.9540816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>2</v>
@@ -1828,31 +1961,103 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
+      <c r="A2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1868,23 +2073,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:225"/>
+  <dimension ref="1:251"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A63" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X38" activeCellId="0" pane="topLeft" sqref="X38"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I11" activeCellId="0" pane="topLeft" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="35.0816326530612" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="29.1377551020408" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="25.1428571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1892,25 +2096,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s" s="16">
-        <v>197</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -1918,17 +2119,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1937,17 +2138,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -1956,17 +2157,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1975,19 +2176,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1996,19 +2197,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -2017,16 +2218,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2036,17 +2237,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -2055,17 +2256,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2074,16 +2275,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2093,17 +2294,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -2112,13 +2313,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -2129,17 +2330,17 @@
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -2148,17 +2349,17 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -2167,17 +2368,17 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -2186,19 +2387,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -2207,19 +2408,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -2228,16 +2429,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2247,17 +2448,17 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -2266,17 +2467,17 @@
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -2285,16 +2486,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2304,17 +2505,17 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2323,16 +2524,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2342,16 +2543,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -2361,17 +2562,17 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -2380,13 +2581,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2397,17 +2598,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -2416,17 +2617,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -2435,17 +2636,17 @@
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G29" s="5"/>
     </row>
@@ -2454,19 +2655,19 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -2475,19 +2676,19 @@
         <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -2496,16 +2697,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2515,17 +2716,17 @@
         <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -2534,17 +2735,17 @@
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -2553,16 +2754,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="5"/>
@@ -2572,17 +2773,17 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -2591,16 +2792,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="5"/>
@@ -2610,17 +2811,17 @@
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -2629,13 +2830,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2662,7 +2863,7 @@
       <c r="AA39" s="0"/>
       <c r="AB39" s="0"/>
       <c r="AC39" s="0"/>
-      <c r="AD39" s="0"/>
+      <c r="AHW39" s="0"/>
       <c r="AHX39" s="0"/>
       <c r="AHY39" s="0"/>
       <c r="AHZ39" s="0"/>
@@ -2786,17 +2987,17 @@
         <v>8</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="0"/>
@@ -2821,7 +3022,7 @@
       <c r="AA40" s="0"/>
       <c r="AB40" s="0"/>
       <c r="AC40" s="0"/>
-      <c r="AD40" s="0"/>
+      <c r="AHW40" s="0"/>
       <c r="AHX40" s="0"/>
       <c r="AHY40" s="0"/>
       <c r="AHZ40" s="0"/>
@@ -2945,17 +3146,17 @@
         <v>8</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="0"/>
@@ -2980,7 +3181,7 @@
       <c r="AA41" s="0"/>
       <c r="AB41" s="0"/>
       <c r="AC41" s="0"/>
-      <c r="AD41" s="0"/>
+      <c r="AHW41" s="0"/>
       <c r="AHX41" s="0"/>
       <c r="AHY41" s="0"/>
       <c r="AHZ41" s="0"/>
@@ -3104,17 +3305,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="0"/>
@@ -3139,7 +3340,7 @@
       <c r="AA42" s="0"/>
       <c r="AB42" s="0"/>
       <c r="AC42" s="0"/>
-      <c r="AD42" s="0"/>
+      <c r="AHW42" s="0"/>
       <c r="AHX42" s="0"/>
       <c r="AHY42" s="0"/>
       <c r="AHZ42" s="0"/>
@@ -3263,19 +3464,19 @@
         <v>8</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="0"/>
@@ -3300,7 +3501,7 @@
       <c r="AA43" s="0"/>
       <c r="AB43" s="0"/>
       <c r="AC43" s="0"/>
-      <c r="AD43" s="0"/>
+      <c r="AHW43" s="0"/>
       <c r="AHX43" s="0"/>
       <c r="AHY43" s="0"/>
       <c r="AHZ43" s="0"/>
@@ -3424,19 +3625,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="0"/>
@@ -3461,7 +3662,7 @@
       <c r="AA44" s="0"/>
       <c r="AB44" s="0"/>
       <c r="AC44" s="0"/>
-      <c r="AD44" s="0"/>
+      <c r="AHW44" s="0"/>
       <c r="AHX44" s="0"/>
       <c r="AHY44" s="0"/>
       <c r="AHZ44" s="0"/>
@@ -3585,16 +3786,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -3620,7 +3821,7 @@
       <c r="AA45" s="0"/>
       <c r="AB45" s="0"/>
       <c r="AC45" s="0"/>
-      <c r="AD45" s="0"/>
+      <c r="AHW45" s="0"/>
       <c r="AHX45" s="0"/>
       <c r="AHY45" s="0"/>
       <c r="AHZ45" s="0"/>
@@ -3744,17 +3945,17 @@
         <v>8</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="0"/>
@@ -3779,7 +3980,7 @@
       <c r="AA46" s="0"/>
       <c r="AB46" s="0"/>
       <c r="AC46" s="0"/>
-      <c r="AD46" s="0"/>
+      <c r="AHW46" s="0"/>
       <c r="AHX46" s="0"/>
       <c r="AHY46" s="0"/>
       <c r="AHZ46" s="0"/>
@@ -3903,17 +4104,17 @@
         <v>8</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="0"/>
@@ -3938,7 +4139,7 @@
       <c r="AA47" s="0"/>
       <c r="AB47" s="0"/>
       <c r="AC47" s="0"/>
-      <c r="AD47" s="0"/>
+      <c r="AHW47" s="0"/>
       <c r="AHX47" s="0"/>
       <c r="AHY47" s="0"/>
       <c r="AHZ47" s="0"/>
@@ -4062,16 +4263,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="7"/>
@@ -4097,7 +4298,7 @@
       <c r="AA48" s="0"/>
       <c r="AB48" s="0"/>
       <c r="AC48" s="0"/>
-      <c r="AD48" s="0"/>
+      <c r="AHW48" s="0"/>
       <c r="AHX48" s="0"/>
       <c r="AHY48" s="0"/>
       <c r="AHZ48" s="0"/>
@@ -4221,17 +4422,17 @@
         <v>8</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G49" s="7"/>
     </row>
@@ -4240,16 +4441,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="7"/>
@@ -4259,16 +4460,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="7"/>
@@ -4278,17 +4479,17 @@
         <v>8</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -4297,13 +4498,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -4314,17 +4515,17 @@
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G54" s="4"/>
     </row>
@@ -4333,17 +4534,17 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G55" s="4"/>
     </row>
@@ -4352,17 +4553,17 @@
         <v>9</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" s="4"/>
     </row>
@@ -4371,19 +4572,19 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G57" s="4"/>
     </row>
@@ -4392,19 +4593,19 @@
         <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G58" s="4"/>
     </row>
@@ -4413,16 +4614,16 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -4432,17 +4633,17 @@
         <v>9</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G60" s="4"/>
     </row>
@@ -4451,17 +4652,17 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G61" s="4"/>
     </row>
@@ -4470,16 +4671,16 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -4489,17 +4690,17 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G63" s="4"/>
     </row>
@@ -4508,16 +4709,16 @@
         <v>9</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -4527,16 +4728,16 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -4546,17 +4747,17 @@
         <v>9</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G66" s="4"/>
     </row>
@@ -4565,13 +4766,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
@@ -4582,17 +4783,17 @@
         <v>10</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G68" s="5"/>
     </row>
@@ -4601,17 +4802,17 @@
         <v>10</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G69" s="5"/>
     </row>
@@ -4620,17 +4821,17 @@
         <v>10</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G70" s="5"/>
     </row>
@@ -4639,19 +4840,19 @@
         <v>10</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G71" s="5"/>
     </row>
@@ -4660,19 +4861,19 @@
         <v>10</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G72" s="5"/>
     </row>
@@ -4681,16 +4882,16 @@
         <v>10</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -4700,17 +4901,17 @@
         <v>10</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G74" s="5"/>
     </row>
@@ -4719,17 +4920,17 @@
         <v>10</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -4738,16 +4939,16 @@
         <v>10</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="5"/>
@@ -4757,17 +4958,17 @@
         <v>10</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G77" s="5"/>
     </row>
@@ -4776,16 +4977,16 @@
         <v>10</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="5"/>
@@ -4795,16 +4996,16 @@
         <v>10</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="5"/>
@@ -4814,17 +5015,17 @@
         <v>10</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -4833,13 +5034,13 @@
         <v>10</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4850,17 +5051,17 @@
         <v>11</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G82" s="7"/>
     </row>
@@ -4869,17 +5070,17 @@
         <v>11</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -4888,17 +5089,17 @@
         <v>11</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G84" s="7"/>
     </row>
@@ -4907,19 +5108,19 @@
         <v>11</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G85" s="7"/>
     </row>
@@ -4928,19 +5129,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G86" s="7"/>
     </row>
@@ -4949,16 +5150,16 @@
         <v>11</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -4968,17 +5169,17 @@
         <v>11</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G88" s="7"/>
     </row>
@@ -4987,17 +5188,17 @@
         <v>11</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G89" s="7"/>
     </row>
@@ -5006,16 +5207,16 @@
         <v>11</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="7"/>
@@ -5025,17 +5226,17 @@
         <v>11</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G91" s="7"/>
     </row>
@@ -5044,16 +5245,16 @@
         <v>11</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="7"/>
@@ -5063,16 +5264,16 @@
         <v>11</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="7"/>
@@ -5082,17 +5283,17 @@
         <v>11</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -5101,13 +5302,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
@@ -5118,17 +5319,17 @@
         <v>12</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -5137,17 +5338,17 @@
         <v>12</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -5156,17 +5357,17 @@
         <v>12</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -5175,19 +5376,19 @@
         <v>12</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -5196,19 +5397,19 @@
         <v>12</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5217,16 +5418,16 @@
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -5236,17 +5437,17 @@
         <v>12</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -5255,17 +5456,17 @@
         <v>12</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G103" s="4"/>
     </row>
@@ -5274,16 +5475,16 @@
         <v>12</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -5293,17 +5494,17 @@
         <v>12</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G105" s="4"/>
     </row>
@@ -5312,16 +5513,16 @@
         <v>12</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -5331,16 +5532,16 @@
         <v>12</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -5350,17 +5551,17 @@
         <v>12</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G108" s="4"/>
     </row>
@@ -5369,13 +5570,13 @@
         <v>12</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -5386,17 +5587,17 @@
         <v>13</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G110" s="5"/>
     </row>
@@ -5405,17 +5606,17 @@
         <v>13</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" s="5"/>
     </row>
@@ -5424,17 +5625,17 @@
         <v>13</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G112" s="5"/>
     </row>
@@ -5443,19 +5644,19 @@
         <v>13</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G113" s="5"/>
     </row>
@@ -5464,19 +5665,19 @@
         <v>13</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G114" s="5"/>
     </row>
@@ -5485,16 +5686,16 @@
         <v>13</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -5504,17 +5705,17 @@
         <v>13</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G116" s="5"/>
     </row>
@@ -5523,17 +5724,17 @@
         <v>13</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G117" s="11"/>
     </row>
@@ -5542,16 +5743,16 @@
         <v>13</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="5"/>
@@ -5561,17 +5762,17 @@
         <v>13</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G119" s="5"/>
     </row>
@@ -5580,16 +5781,16 @@
         <v>13</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="5"/>
@@ -5599,16 +5800,16 @@
         <v>13</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="5"/>
@@ -5618,17 +5819,17 @@
         <v>13</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G122" s="5"/>
     </row>
@@ -5637,13 +5838,13 @@
         <v>13</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -5654,17 +5855,17 @@
         <v>14</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G124" s="7"/>
     </row>
@@ -5673,17 +5874,17 @@
         <v>14</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G125" s="7"/>
     </row>
@@ -5692,17 +5893,17 @@
         <v>14</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G126" s="7"/>
     </row>
@@ -5711,19 +5912,19 @@
         <v>14</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G127" s="7"/>
     </row>
@@ -5732,19 +5933,19 @@
         <v>14</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G128" s="7"/>
     </row>
@@ -5753,16 +5954,16 @@
         <v>14</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
@@ -5772,17 +5973,17 @@
         <v>14</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G130" s="7"/>
     </row>
@@ -5791,17 +5992,17 @@
         <v>14</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131" s="7"/>
     </row>
@@ -5810,16 +6011,16 @@
         <v>14</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="7"/>
@@ -5829,17 +6030,17 @@
         <v>14</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G133" s="7"/>
     </row>
@@ -5848,16 +6049,16 @@
         <v>14</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="7"/>
@@ -5867,16 +6068,16 @@
         <v>14</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="7"/>
@@ -5886,17 +6087,17 @@
         <v>14</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G136" s="7"/>
     </row>
@@ -5905,13 +6106,13 @@
         <v>14</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
@@ -5922,17 +6123,17 @@
         <v>15</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G138" s="4"/>
     </row>
@@ -5941,17 +6142,17 @@
         <v>15</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139" s="4"/>
     </row>
@@ -5960,17 +6161,17 @@
         <v>15</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G140" s="4"/>
     </row>
@@ -5979,19 +6180,19 @@
         <v>15</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G141" s="4"/>
     </row>
@@ -6000,19 +6201,19 @@
         <v>15</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G142" s="4"/>
     </row>
@@ -6021,16 +6222,16 @@
         <v>15</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -6040,17 +6241,17 @@
         <v>15</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G144" s="4"/>
     </row>
@@ -6059,17 +6260,17 @@
         <v>15</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G145" s="4"/>
     </row>
@@ -6078,16 +6279,16 @@
         <v>15</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -6097,17 +6298,17 @@
         <v>15</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G147" s="4"/>
     </row>
@@ -6116,16 +6317,16 @@
         <v>15</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -6135,17 +6336,17 @@
         <v>15</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G149" s="4"/>
     </row>
@@ -6154,13 +6355,13 @@
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
@@ -6171,850 +6372,787 @@
         <v>16</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G151" s="5"/>
-      <c r="H151" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="152">
       <c r="A152" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G152" s="5"/>
-      <c r="H152" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="153">
       <c r="A153" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G153" s="5"/>
-      <c r="H153" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="154">
       <c r="A154" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G154" s="5"/>
-      <c r="H154" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="155">
       <c r="A155" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G155" s="5"/>
-      <c r="H155" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="156">
       <c r="A156" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="157">
       <c r="A157" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G157" s="5"/>
-      <c r="H157" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="158">
       <c r="A158" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G158" s="5"/>
-      <c r="H158" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="159">
       <c r="A159" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="5"/>
-      <c r="H159" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="160">
       <c r="A160" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E160" s="11"/>
       <c r="F160" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G160" s="5"/>
-      <c r="H160" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="161">
       <c r="A161" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-      <c r="H161" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="162">
       <c r="A162" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G162" s="5"/>
-      <c r="H162" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="163">
       <c r="A163" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
-      <c r="H163" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
       <c r="A164" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E164" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="165">
       <c r="A165" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G166" s="5"/>
-      <c r="H166" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="167">
       <c r="A167" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="168">
       <c r="A168" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
-      <c r="H168" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="169">
       <c r="A169" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G169" s="5"/>
-      <c r="H169" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="170">
       <c r="A170" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-      <c r="H170" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="171">
       <c r="A171" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="172">
       <c r="A172" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G172" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="173">
       <c r="A173" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G173" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="174">
       <c r="A174" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G174" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="175">
       <c r="A175" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G175" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="176">
       <c r="A176" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G176" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="177">
       <c r="A177" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="178">
       <c r="A178" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G178" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="179">
       <c r="A179" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G179" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="180">
       <c r="A180" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="181">
       <c r="A181" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G181" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="182">
       <c r="A182" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="183">
       <c r="A183" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G183" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="184">
       <c r="A184" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="185">
       <c r="A185" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C185" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D185" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E185" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="186">
       <c r="A186" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G186" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="187">
       <c r="A187" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G187" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="188">
       <c r="A188" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G188" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="189">
       <c r="A189" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="190">
       <c r="A190" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G190" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="191">
       <c r="A191" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
@@ -7022,286 +7160,286 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="192">
       <c r="A192" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="193">
       <c r="A193" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G193" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="194">
       <c r="A194" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G194" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="195">
       <c r="A195" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G195" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="196">
       <c r="A196" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G196" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="197">
       <c r="A197" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="198">
       <c r="A198" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G198" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="199">
       <c r="A199" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G199" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="200">
       <c r="A200" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="201">
       <c r="A201" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G201" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="202">
       <c r="A202" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="203">
       <c r="A203" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G203" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="204">
       <c r="A204" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="205">
       <c r="A205" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="206">
       <c r="A206" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -7309,35 +7447,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="207">
       <c r="A207" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G207" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="208">
       <c r="A208" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -7345,286 +7483,286 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="209">
       <c r="A209" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G209" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="210">
       <c r="A210" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G210" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="211">
       <c r="A211" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G211" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="212">
       <c r="A212" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G212" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="213">
       <c r="A213" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G213" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="214">
       <c r="A214" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="215">
       <c r="A215" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G215" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="216">
       <c r="A216" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G216" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="217">
       <c r="A217" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F217" s="11"/>
       <c r="G217" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="218">
       <c r="A218" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E218" s="11"/>
       <c r="F218" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G218" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="219">
       <c r="A219" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="220">
       <c r="A220" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E220" s="11"/>
       <c r="F220" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G220" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="221">
       <c r="A221" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="222">
       <c r="A222" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="223">
       <c r="A223" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -7632,39 +7770,537 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="224">
       <c r="A224" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G224" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="225">
       <c r="A225" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="226">
+      <c r="A226" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G226" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="227">
+      <c r="A227" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G227" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="228">
+      <c r="A228" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G228" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="229">
+      <c r="A229" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="230">
+      <c r="A230" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="231">
+      <c r="A231" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="232">
+      <c r="A232" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G232" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="233">
+      <c r="A233" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G233" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="234">
+      <c r="A234" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="235">
+      <c r="A235" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G235" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="236">
+      <c r="A236" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F236" s="16"/>
+      <c r="G236" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="237">
+      <c r="A237" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E237" s="15"/>
+      <c r="F237" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G237" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="238">
+      <c r="A238" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="239">
+      <c r="A239" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G239" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="240">
+      <c r="A240" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="241">
+      <c r="A241" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G241" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="242">
+      <c r="A242" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="243">
+      <c r="A243" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="244">
+      <c r="A244" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="245">
+      <c r="A245" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G245" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="246">
+      <c r="A246" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G246" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="247">
+      <c r="A247" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="248">
+      <c r="A248" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G248" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="249">
+      <c r="A249" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F249" s="20"/>
+      <c r="G249" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="250">
+      <c r="A250" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D250" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E250" s="7"/>
+      <c r="F250" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G250" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="251">
+      <c r="A251" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7673,6 +8309,78 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E23" activeCellId="0" pane="topLeft" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
+      <c r="A2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7690,26 +8398,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="33.0663265306122" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="26.2040816326531" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.9387755102041" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="23.1173469387755" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="14.1122448979592" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -7717,24 +8425,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7759,22 +8467,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" hidden="false" style="0" width="23.1173469387755" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -7782,24 +8490,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7824,23 +8532,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" hidden="false" style="0" width="34.4030612244898" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="24.3265306122449" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="34.4030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -7851,27 +8559,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7896,27 +8604,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.8520408163265" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.5408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -7924,27 +8632,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7969,27 +8677,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.984693877551" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -7997,27 +8705,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8042,27 +8750,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="34.5408163265306" collapsed="true"/>
-    <col min="2" max="5" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.4438775510204" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="34.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -8070,27 +8778,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8115,26 +8823,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="22.7142857142857" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="34.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -8142,27 +8850,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId44"/>
+    <hyperlink display="mojio.2@optimusinfo.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MyMojioWebsite/src/com/mojio/xls/Dashboard_Page.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/Dashboard_Page.xlsx
@@ -213,7 +213,7 @@
     <t>Close the browser</t>
   </si>
   <si>
-    <t>closeBroswer</t>
+    <t>closebrowser</t>
   </si>
   <si>
     <t>TS008</t>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C22" activeCellId="0" pane="topLeft" sqref="C22"/>
+      <selection activeCell="C22" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
+      <selection activeCell="B13" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
+      <selection activeCell="B13" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+      <selection activeCell="B12" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
+      <selection activeCell="A9" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C17" activeCellId="0" pane="topLeft" sqref="C17"/>
+      <selection activeCell="C17" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1651,7 +1651,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D17" activeCellId="0" pane="topLeft" sqref="D17"/>
+      <selection activeCell="D17" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+      <selection activeCell="B8" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D37" activeCellId="0" pane="topLeft" sqref="D37"/>
+      <selection activeCell="D37" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E10" activeCellId="0" pane="topLeft" sqref="E10"/>
+      <selection activeCell="E10" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+      <selection activeCell="D14" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2075,8 +2075,8 @@
   </sheetPr>
   <dimension ref="1:251"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I11" activeCellId="0" pane="topLeft" sqref="I11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A9" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8321,7 +8321,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E23" activeCellId="0" pane="topLeft" sqref="E23"/>
+      <selection activeCell="E23" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8393,7 +8393,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
+      <selection activeCell="B27" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8462,7 +8462,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8527,7 +8527,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8599,7 +8599,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D13" activeCellId="0" pane="topLeft" sqref="D13"/>
+      <selection activeCell="D13" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8672,7 +8672,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B16" activeCellId="0" pane="topLeft" sqref="B16"/>
+      <selection activeCell="B16" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8745,7 +8745,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
+      <selection activeCell="B13" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8818,7 +8818,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C18" activeCellId="0" pane="topLeft" sqref="C18"/>
+      <selection activeCell="C18" activeCellId="17" pane="topLeft" sqref="D12 D26 D39 D53 D67 D81 D95 D109 D123 D137 D150 D171 D191 D208 D225 D238 D251 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
